--- a/report.xlsx
+++ b/report.xlsx
@@ -8,7 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="Статистика по годам" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Статистика по городам" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -47,29 +46,21 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="00000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="00000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="00000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="00000000"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -485,13 +476,13 @@
         <v>38916</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>40641</v>
+        <v>43770</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>2196</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>34</v>
+        <v>317</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +493,13 @@
         <v>43646</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>48428</v>
+        <v>50412</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>17549</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>196</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="4">
@@ -519,13 +510,13 @@
         <v>42492</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>48109</v>
+        <v>46699</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>17709</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>171</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="5">
@@ -536,13 +527,13 @@
         <v>43846</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>49577</v>
+        <v>50570</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>29093</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>328</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="6">
@@ -553,13 +544,13 @@
         <v>47451</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>52794</v>
+        <v>55770</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>36700</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>418</v>
+        <v>4422</v>
       </c>
     </row>
     <row r="7">
@@ -570,13 +561,13 @@
         <v>48243</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>58341</v>
+        <v>57960</v>
       </c>
       <c r="D7" s="2" t="n">
         <v>44153</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>374</v>
+        <v>4966</v>
       </c>
     </row>
     <row r="8">
@@ -587,13 +578,13 @@
         <v>51510</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>57004</v>
+        <v>58804</v>
       </c>
       <c r="D8" s="2" t="n">
         <v>59954</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>420</v>
+        <v>5990</v>
       </c>
     </row>
     <row r="9">
@@ -604,13 +595,13 @@
         <v>50658</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>58768</v>
+        <v>62384</v>
       </c>
       <c r="D9" s="2" t="n">
         <v>66837</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>504</v>
+        <v>5492</v>
       </c>
     </row>
     <row r="10">
@@ -621,13 +612,13 @@
         <v>52696</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>53326</v>
+        <v>62322</v>
       </c>
       <c r="D10" s="2" t="n">
         <v>70039</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>749</v>
+        <v>5375</v>
       </c>
     </row>
     <row r="11">
@@ -638,13 +629,13 @@
         <v>62675</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>54236</v>
+        <v>66817</v>
       </c>
       <c r="D11" s="2" t="n">
         <v>75145</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>911</v>
+        <v>7219</v>
       </c>
     </row>
     <row r="12">
@@ -655,13 +646,13 @@
         <v>60935</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>56558</v>
+        <v>72460</v>
       </c>
       <c r="D12" s="2" t="n">
         <v>82823</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>1201</v>
+        <v>8105</v>
       </c>
     </row>
     <row r="13">
@@ -672,13 +663,13 @@
         <v>58335</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>61080</v>
+        <v>76879</v>
       </c>
       <c r="D13" s="2" t="n">
         <v>131701</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>1578</v>
+        <v>10062</v>
       </c>
     </row>
     <row r="14">
@@ -689,13 +680,13 @@
         <v>69467</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>71288</v>
+        <v>85300</v>
       </c>
       <c r="D14" s="2" t="n">
         <v>115086</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>1482</v>
+        <v>9016</v>
       </c>
     </row>
     <row r="15">
@@ -706,13 +697,13 @@
         <v>73431</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>80145</v>
+        <v>89791</v>
       </c>
       <c r="D15" s="2" t="n">
         <v>102243</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>1349</v>
+        <v>7113</v>
       </c>
     </row>
     <row r="16">
@@ -723,13 +714,13 @@
         <v>82690</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>87473</v>
+        <v>100987</v>
       </c>
       <c r="D16" s="2" t="n">
         <v>57623</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>805</v>
+        <v>3466</v>
       </c>
     </row>
     <row r="17">
@@ -740,256 +731,13 @@
         <v>91795</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>91340</v>
+        <v>116651</v>
       </c>
       <c r="D17" s="2" t="n">
         <v>18294</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>305</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="17" customWidth="1" min="1" max="1"/>
-    <col width="17" customWidth="1" min="2" max="2"/>
-    <col width="3" customWidth="1" min="3" max="3"/>
-    <col width="17" customWidth="1" min="4" max="4"/>
-    <col width="15" customWidth="1" min="5" max="5"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Город</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Уровень зарплат</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Город</t>
-        </is>
-      </c>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Доля вакансий</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="n">
-        <v>76970</v>
-      </c>
-      <c r="C2" s="2" t="n"/>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>Москва</t>
-        </is>
-      </c>
-      <c r="E2" s="4" t="n">
-        <v>0.3246</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>65286</v>
-      </c>
-      <c r="C3" s="2" t="n"/>
-      <c r="D3" s="2" t="inlineStr">
-        <is>
-          <t>Санкт-Петербург</t>
-        </is>
-      </c>
-      <c r="E3" s="4" t="n">
-        <v>0.1197</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>Новосибирск</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>62254</v>
-      </c>
-      <c r="C4" s="2" t="n"/>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>Новосибирск</t>
-        </is>
-      </c>
-      <c r="E4" s="4" t="n">
-        <v>0.0271</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>Екатеринбург</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>60962</v>
-      </c>
-      <c r="C5" s="2" t="n"/>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>Казань</t>
-        </is>
-      </c>
-      <c r="E5" s="4" t="n">
-        <v>0.0237</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>Казань</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>52580</v>
-      </c>
-      <c r="C6" s="2" t="n"/>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>Нижний Новгород</t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>0.0232</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>Краснодар</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="n">
-        <v>51644</v>
-      </c>
-      <c r="C7" s="2" t="n"/>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>Ростов-на-Дону</t>
-        </is>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>0.0209</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>Челябинск</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="n">
-        <v>51265</v>
-      </c>
-      <c r="C8" s="2" t="n"/>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>Екатеринбург</t>
-        </is>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>0.0207</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>Самара</t>
-        </is>
-      </c>
-      <c r="B9" s="2" t="n">
-        <v>50994</v>
-      </c>
-      <c r="C9" s="2" t="n"/>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>Краснодар</t>
-        </is>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>0.0185</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="inlineStr">
-        <is>
-          <t>Пермь</t>
-        </is>
-      </c>
-      <c r="B10" s="2" t="n">
-        <v>48089</v>
-      </c>
-      <c r="C10" s="2" t="n"/>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>Самара</t>
-        </is>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>0.0143</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="inlineStr">
-        <is>
-          <t>Нижний Новгород</t>
-        </is>
-      </c>
-      <c r="B11" s="2" t="n">
-        <v>47662</v>
-      </c>
-      <c r="C11" s="2" t="n"/>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>Воронеж</t>
-        </is>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>0.0141</v>
+        <v>1115</v>
       </c>
     </row>
   </sheetData>
